--- a/DATA_goal/Junction_Flooding_463.xlsx
+++ b/DATA_goal/Junction_Flooding_463.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44794.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44794.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.23</v>
+        <v>112.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44794.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.46</v>
+        <v>24.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.37</v>
+        <v>33.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.97</v>
+        <v>129.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.9</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.55</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.12</v>
+        <v>31.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44794.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.8</v>
+        <v>37.98</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.13</v>
+        <v>141.26</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.49</v>
+        <v>34.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_463.xlsx
+++ b/DATA_goal/Junction_Flooding_463.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44794.54861111111</v>
+        <v>45144.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44794.55555555555</v>
+        <v>45144.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.93</v>
+        <v>21.356</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.47</v>
+        <v>15.897</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.818</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.23</v>
+        <v>46.992</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.74</v>
+        <v>37.735</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.33</v>
+        <v>16.383</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.32</v>
+        <v>61.483</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.71</v>
+        <v>26.123</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.07</v>
+        <v>11.608</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.16</v>
+        <v>16.579</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>19.059</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>19.894</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.49</v>
+        <v>5.726</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.71</v>
+        <v>23.828</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.12</v>
+        <v>14.566</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.187</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.821</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.3</v>
+        <v>250.193</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.24</v>
+        <v>47.253</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.42</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.06</v>
+        <v>31.419</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>16.724</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>2.324</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.3</v>
+        <v>31.659</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.42</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.53</v>
+        <v>12.348</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.63</v>
+        <v>14.485</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.19</v>
+        <v>19.828</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.45</v>
+        <v>56.323</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.39</v>
+        <v>8.683</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.83</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44794.5625</v>
+        <v>45144.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.41</v>
+        <v>0.292</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.58</v>
+        <v>0.132</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.718</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.6</v>
+        <v>0.834</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.49</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.67</v>
+        <v>10.154</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.24</v>
+        <v>0.531</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.7</v>
+        <v>0.27</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.354</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>0.277</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.15</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.54</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.15</v>
+        <v>0.572</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.73</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.84</v>
+        <v>1.785</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.3</v>
+        <v>1.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.097</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.9</v>
+        <v>5.006</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.35</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.39</v>
+        <v>0.477</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.61</v>
+        <v>0.499</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.55</v>
+        <v>0.433</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.611</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.21</v>
+        <v>10.259</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.93</v>
+        <v>0.031</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.22</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44794.56944444445</v>
+        <v>45144.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.39</v>
+        <v>11.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.31</v>
+        <v>8.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.82</v>
+        <v>24.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.29</v>
+        <v>20.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.51</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.98</v>
+        <v>31.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.32</v>
+        <v>13.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.12</v>
+        <v>6.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.14</v>
+        <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.36</v>
+        <v>10.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.13</v>
+        <v>2.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.7</v>
+        <v>12.65</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.83</v>
+        <v>7.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.26</v>
+        <v>130.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.04</v>
+        <v>25.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.68</v>
+        <v>16.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.94</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.65</v>
+        <v>15.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.97</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.95</v>
+        <v>6.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.26</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.45</v>
+        <v>10.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.9</v>
+        <v>28.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.29</v>
+        <v>4.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44794.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.95</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_463.xlsx
+++ b/DATA_goal/Junction_Flooding_463.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45144.50694444445</v>
+        <v>44794.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45144.51388888889</v>
+        <v>44794.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.356</v>
+        <v>9.926</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.897</v>
+        <v>7.471</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.818</v>
+        <v>0.375</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.992</v>
+        <v>21.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.735</v>
+        <v>17.736</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.383</v>
+        <v>7.331</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.483</v>
+        <v>23.321</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.123</v>
+        <v>12.706</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.608</v>
+        <v>6.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.579</v>
+        <v>8.164</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.059</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.894</v>
+        <v>8.955</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.726</v>
+        <v>2.49</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.918</v>
+        <v>8.045999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.828</v>
+        <v>10.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.566</v>
+        <v>6.117</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.187</v>
+        <v>1.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.821</v>
+        <v>0.418</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.193</v>
+        <v>112.299</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.253</v>
+        <v>21.237</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.616</v>
+        <v>7.419</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.419</v>
+        <v>15.061</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.724</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.324</v>
+        <v>1.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.659</v>
+        <v>12.295</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.794</v>
+        <v>6.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.348</v>
+        <v>5.528</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.485</v>
+        <v>6.629</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.828</v>
+        <v>9.189</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.323</v>
+        <v>21.454</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.683</v>
+        <v>4.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.524</v>
+        <v>8.835000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45144.52083333334</v>
+        <v>44794.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.292</v>
+        <v>11.405</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.132</v>
+        <v>8.576000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.718</v>
+        <v>0.406</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.834</v>
+        <v>24.605</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>20.487</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.154</v>
+        <v>33.672</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.531</v>
+        <v>14.244</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.27</v>
+        <v>6.702</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.354</v>
+        <v>9.358000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.277</v>
+        <v>10.061</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>10.414</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.6</v>
+        <v>12.542</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.572</v>
+        <v>7.148</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.365</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>129.726</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.785</v>
+        <v>24.838</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.13</v>
+        <v>17.296</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.542</v>
+        <v>9.285</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.097</v>
+        <v>1.185</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.006</v>
+        <v>16.896</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.307</v>
+        <v>7.35</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.477</v>
+        <v>6.391</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.499</v>
+        <v>7.612</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.433</v>
+        <v>10.553</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.611</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.259</v>
+        <v>31.213</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.031</v>
+        <v>4.929</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.465</v>
+        <v>10.218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45144.52777777778</v>
+        <v>44794.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.38</v>
+        <v>12.387</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.49</v>
+        <v>9.311999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.94</v>
+        <v>26.817</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.07</v>
+        <v>22.285</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.507</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.58</v>
+        <v>37.977</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.91</v>
+        <v>15.323</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.06</v>
+        <v>7.124</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.33</v>
+        <v>10.145</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>10.901</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.34</v>
+        <v>11.363</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.79</v>
+        <v>3.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.885</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.65</v>
+        <v>13.703</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.69</v>
+        <v>7.834</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.708</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.41</v>
+        <v>141.259</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.03</v>
+        <v>27.044</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>9.128</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.62</v>
+        <v>18.679</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.283</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.97</v>
+        <v>18.652</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.966</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.59</v>
+        <v>6.952</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.74</v>
+        <v>8.256</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.58</v>
+        <v>11.448</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.166</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.4</v>
+        <v>34.897</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.62</v>
+        <v>5.288</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44794.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_463.xlsx
+++ b/DATA_goal/Junction_Flooding_463.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44794.54861111111</v>
+        <v>45144.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44794.55555555555</v>
+        <v>45144.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.926</v>
+        <v>21.356</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.471</v>
+        <v>15.897</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.375</v>
+        <v>1.818</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.23</v>
+        <v>46.992</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.736</v>
+        <v>37.735</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.331</v>
+        <v>16.383</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.321</v>
+        <v>61.483</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.706</v>
+        <v>26.123</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.07</v>
+        <v>11.608</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.164</v>
+        <v>16.579</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>19.059</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.955</v>
+        <v>19.894</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.49</v>
+        <v>5.726</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.045999999999999</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.71</v>
+        <v>23.828</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.117</v>
+        <v>14.566</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.187</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.418</v>
+        <v>0.821</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.299</v>
+        <v>250.193</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.237</v>
+        <v>47.253</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.419</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.061</v>
+        <v>31.419</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>16.724</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>2.324</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.295</v>
+        <v>31.659</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.42</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.528</v>
+        <v>12.348</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.629</v>
+        <v>14.485</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.189</v>
+        <v>19.828</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.454</v>
+        <v>56.323</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.39</v>
+        <v>8.683</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.835000000000001</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44794.5625</v>
+        <v>45144.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.405</v>
+        <v>0.292</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.576000000000001</v>
+        <v>0.132</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.406</v>
+        <v>0.718</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.605</v>
+        <v>0.834</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.487</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.672</v>
+        <v>10.154</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.244</v>
+        <v>0.531</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.702</v>
+        <v>0.27</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.358000000000001</v>
+        <v>0.354</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.061</v>
+        <v>0.277</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.414</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.542</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.148</v>
+        <v>0.572</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.884</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.365</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.726</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.838</v>
+        <v>1.785</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.296</v>
+        <v>1.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.285</v>
+        <v>0.542</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.185</v>
+        <v>0.097</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.896</v>
+        <v>5.006</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.35</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.391</v>
+        <v>0.477</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.612</v>
+        <v>0.499</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.553</v>
+        <v>0.433</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.611</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.213</v>
+        <v>10.259</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.929</v>
+        <v>0.031</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.218</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44794.56944444445</v>
+        <v>45144.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.387</v>
+        <v>11.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.311999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.817</v>
+        <v>24.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.285</v>
+        <v>20.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.507</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.977</v>
+        <v>31.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.323</v>
+        <v>13.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.124</v>
+        <v>6.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.145</v>
+        <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.901</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.363</v>
+        <v>10.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.13</v>
+        <v>2.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.885</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.703</v>
+        <v>12.65</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.834</v>
+        <v>7.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.708</v>
+        <v>0.62</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.259</v>
+        <v>130.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.044</v>
+        <v>25.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.128</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.679</v>
+        <v>16.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.936999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.283</v>
+        <v>1.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.652</v>
+        <v>15.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.966</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.952</v>
+        <v>6.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.256</v>
+        <v>7.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.448</v>
+        <v>10.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.46</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.897</v>
+        <v>28.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.288</v>
+        <v>4.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44794.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.65000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.95</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
